--- a/Model/BayesLSTM/Univariate/result/Manufacturing/CAN.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Manufacturing/CAN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>12.45262336730957</v>
+        <v>8.815475463867188</v>
       </c>
       <c r="C2" t="n">
-        <v>10.01301956176758</v>
+        <v>7.32081413269043</v>
       </c>
       <c r="D2" t="n">
-        <v>14.89222717285156</v>
+        <v>10.31013679504395</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>11.59547901153564</v>
+        <v>8.281569480895996</v>
       </c>
       <c r="C3" t="n">
-        <v>7.965283393859863</v>
+        <v>6.578454971313477</v>
       </c>
       <c r="D3" t="n">
-        <v>15.22567462921143</v>
+        <v>9.984683990478516</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>11.72957801818848</v>
+        <v>8.29255199432373</v>
       </c>
       <c r="C4" t="n">
-        <v>8.526744842529297</v>
+        <v>6.720053672790527</v>
       </c>
       <c r="D4" t="n">
-        <v>14.93241119384766</v>
+        <v>9.865050315856934</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>11.65863800048828</v>
+        <v>8.061990737915039</v>
       </c>
       <c r="C5" t="n">
-        <v>8.050898551940918</v>
+        <v>6.027525901794434</v>
       </c>
       <c r="D5" t="n">
-        <v>15.26637744903564</v>
+        <v>10.09645557403564</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>11.364333152771</v>
+        <v>8.285669326782227</v>
       </c>
       <c r="C6" t="n">
-        <v>8.076428413391113</v>
+        <v>6.101946830749512</v>
       </c>
       <c r="D6" t="n">
-        <v>14.65223789215088</v>
+        <v>10.46939182281494</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>11.58348274230957</v>
+        <v>8.358871459960938</v>
       </c>
       <c r="C7" t="n">
-        <v>8.024227142333984</v>
+        <v>6.3638014793396</v>
       </c>
       <c r="D7" t="n">
-        <v>15.14273834228516</v>
+        <v>10.35394096374512</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>11.50639057159424</v>
+        <v>8.30683422088623</v>
       </c>
       <c r="C8" t="n">
-        <v>8.026320457458496</v>
+        <v>6.178040504455566</v>
       </c>
       <c r="D8" t="n">
-        <v>14.98646068572998</v>
+        <v>10.43562793731689</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>11.38386344909668</v>
+        <v>8.345592498779297</v>
       </c>
       <c r="C9" t="n">
-        <v>7.80711841583252</v>
+        <v>6.429883480072021</v>
       </c>
       <c r="D9" t="n">
-        <v>14.96060848236084</v>
+        <v>10.26130104064941</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>11.13560962677002</v>
+        <v>8.144252777099609</v>
       </c>
       <c r="C10" t="n">
-        <v>7.787424087524414</v>
+        <v>6.326221466064453</v>
       </c>
       <c r="D10" t="n">
-        <v>14.48379516601562</v>
+        <v>9.962284088134766</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>11.18351364135742</v>
+        <v>8.301084518432617</v>
       </c>
       <c r="C11" t="n">
-        <v>8.146257400512695</v>
+        <v>6.392911911010742</v>
       </c>
       <c r="D11" t="n">
-        <v>14.22076988220215</v>
+        <v>10.20925712585449</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>11.26127338409424</v>
+        <v>8.407577514648438</v>
       </c>
       <c r="C12" t="n">
-        <v>8.552936553955078</v>
+        <v>6.576774120330811</v>
       </c>
       <c r="D12" t="n">
-        <v>13.9696102142334</v>
+        <v>10.23838043212891</v>
       </c>
     </row>
     <row r="13">
@@ -617,83 +617,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>10.94623565673828</v>
+        <v>8.700593948364258</v>
       </c>
       <c r="C13" t="n">
-        <v>8.457377433776855</v>
+        <v>6.973582744598389</v>
       </c>
       <c r="D13" t="n">
-        <v>13.43509387969971</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B14" t="n">
-        <v>11.0428352355957</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7.771172523498535</v>
-      </c>
-      <c r="D14" t="n">
-        <v>14.31449794769287</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B15" t="n">
-        <v>11.24287223815918</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7.902438163757324</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14.58330631256104</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B16" t="n">
-        <v>11.24633979797363</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7.842103958129883</v>
-      </c>
-      <c r="D16" t="n">
-        <v>14.65057563781738</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B17" t="n">
-        <v>11.18810176849365</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7.76069450378418</v>
-      </c>
-      <c r="D17" t="n">
-        <v>14.61550903320312</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B18" t="n">
-        <v>11.54403686523438</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8.431833267211914</v>
-      </c>
-      <c r="D18" t="n">
-        <v>14.65624046325684</v>
+        <v>10.42760467529297</v>
       </c>
     </row>
   </sheetData>
@@ -739,72 +669,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>11.52810792922974</v>
+        <v>9.235820770263672</v>
       </c>
       <c r="C2" t="n">
-        <v>10.02142505282005</v>
+        <v>7.182141780853271</v>
       </c>
       <c r="D2" t="n">
-        <v>13.03479080563943</v>
+        <v>11.28949928283691</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>9.198096942901611</v>
+        <v>9.014425277709961</v>
       </c>
       <c r="C3" t="n">
-        <v>6.630782951671</v>
+        <v>6.991371631622314</v>
       </c>
       <c r="D3" t="n">
-        <v>11.76541093413222</v>
+        <v>11.03747940063477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>11.69126577377319</v>
+        <v>9.068760871887207</v>
       </c>
       <c r="C4" t="n">
-        <v>10.14382494555618</v>
+        <v>6.728938102722168</v>
       </c>
       <c r="D4" t="n">
-        <v>13.2387066019902</v>
+        <v>11.40858364105225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>9.274215459823608</v>
+        <v>9.006616592407227</v>
       </c>
       <c r="C5" t="n">
-        <v>6.418443549072385</v>
+        <v>6.457228660583496</v>
       </c>
       <c r="D5" t="n">
-        <v>12.12998737057483</v>
+        <v>11.55600452423096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>12.48452558517456</v>
+        <v>8.933379173278809</v>
       </c>
       <c r="C6" t="n">
-        <v>11.16969519837001</v>
+        <v>6.288811206817627</v>
       </c>
       <c r="D6" t="n">
-        <v>13.79935597197911</v>
+        <v>11.57794761657715</v>
       </c>
     </row>
   </sheetData>
@@ -853,13 +783,13 @@
         <v>2005</v>
       </c>
       <c r="B2" t="n">
-        <v>10.81988334655762</v>
+        <v>11.65262508392334</v>
       </c>
       <c r="C2" t="n">
-        <v>7.758031845092773</v>
+        <v>10.32347774505615</v>
       </c>
       <c r="D2" t="n">
-        <v>13.88173484802246</v>
+        <v>12.98177242279053</v>
       </c>
     </row>
     <row r="3">
@@ -867,13 +797,13 @@
         <v>2006</v>
       </c>
       <c r="B3" t="n">
-        <v>10.766770362854</v>
+        <v>11.79584312438965</v>
       </c>
       <c r="C3" t="n">
-        <v>6.545493125915527</v>
+        <v>9.631708145141602</v>
       </c>
       <c r="D3" t="n">
-        <v>14.98804759979248</v>
+        <v>13.9599781036377</v>
       </c>
     </row>
     <row r="4">
@@ -881,13 +811,13 @@
         <v>2007</v>
       </c>
       <c r="B4" t="n">
-        <v>10.77585792541504</v>
+        <v>11.42649269104004</v>
       </c>
       <c r="C4" t="n">
-        <v>7.43843936920166</v>
+        <v>9.424881935119629</v>
       </c>
       <c r="D4" t="n">
-        <v>14.11327648162842</v>
+        <v>13.42810344696045</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +825,13 @@
         <v>2008</v>
       </c>
       <c r="B5" t="n">
-        <v>10.72260475158691</v>
+        <v>11.31067085266113</v>
       </c>
       <c r="C5" t="n">
-        <v>7.850162506103516</v>
+        <v>9.890703201293945</v>
       </c>
       <c r="D5" t="n">
-        <v>13.59504699707031</v>
+        <v>12.73063850402832</v>
       </c>
     </row>
     <row r="6">
@@ -909,13 +839,13 @@
         <v>2009</v>
       </c>
       <c r="B6" t="n">
-        <v>10.82859230041504</v>
+        <v>11.51818656921387</v>
       </c>
       <c r="C6" t="n">
-        <v>7.693939208984375</v>
+        <v>10.26134586334229</v>
       </c>
       <c r="D6" t="n">
-        <v>13.9632453918457</v>
+        <v>12.77502727508545</v>
       </c>
     </row>
     <row r="7">
@@ -923,13 +853,13 @@
         <v>2010</v>
       </c>
       <c r="B7" t="n">
-        <v>10.92326259613037</v>
+        <v>11.28823375701904</v>
       </c>
       <c r="C7" t="n">
-        <v>7.827170372009277</v>
+        <v>9.779511451721191</v>
       </c>
       <c r="D7" t="n">
-        <v>14.01935482025146</v>
+        <v>12.79695606231689</v>
       </c>
     </row>
     <row r="8">
@@ -937,13 +867,13 @@
         <v>2011</v>
       </c>
       <c r="B8" t="n">
-        <v>10.87168025970459</v>
+        <v>11.42365455627441</v>
       </c>
       <c r="C8" t="n">
-        <v>8.456439971923828</v>
+        <v>10.05167770385742</v>
       </c>
       <c r="D8" t="n">
-        <v>13.28692054748535</v>
+        <v>12.79563140869141</v>
       </c>
     </row>
     <row r="9">
@@ -951,13 +881,13 @@
         <v>2012</v>
       </c>
       <c r="B9" t="n">
-        <v>10.89715957641602</v>
+        <v>11.30061149597168</v>
       </c>
       <c r="C9" t="n">
-        <v>8.315888404846191</v>
+        <v>9.419872283935547</v>
       </c>
       <c r="D9" t="n">
-        <v>13.47843074798584</v>
+        <v>13.18135070800781</v>
       </c>
     </row>
     <row r="10">
@@ -965,13 +895,13 @@
         <v>2013</v>
       </c>
       <c r="B10" t="n">
-        <v>10.91391563415527</v>
+        <v>10.93847846984863</v>
       </c>
       <c r="C10" t="n">
-        <v>8.571643829345703</v>
+        <v>8.98054313659668</v>
       </c>
       <c r="D10" t="n">
-        <v>13.25618743896484</v>
+        <v>12.89641380310059</v>
       </c>
     </row>
     <row r="11">
@@ -979,13 +909,13 @@
         <v>2014</v>
       </c>
       <c r="B11" t="n">
-        <v>10.88163948059082</v>
+        <v>11.36052417755127</v>
       </c>
       <c r="C11" t="n">
-        <v>7.638537406921387</v>
+        <v>9.636541366577148</v>
       </c>
       <c r="D11" t="n">
-        <v>14.12474155426025</v>
+        <v>13.08450698852539</v>
       </c>
     </row>
     <row r="12">
@@ -993,13 +923,13 @@
         <v>2015</v>
       </c>
       <c r="B12" t="n">
-        <v>10.82937145233154</v>
+        <v>11.36429023742676</v>
       </c>
       <c r="C12" t="n">
-        <v>8.485563278198242</v>
+        <v>9.407416343688965</v>
       </c>
       <c r="D12" t="n">
-        <v>13.17317962646484</v>
+        <v>13.32116413116455</v>
       </c>
     </row>
     <row r="13">
@@ -1007,13 +937,13 @@
         <v>2016</v>
       </c>
       <c r="B13" t="n">
-        <v>9.979792594909668</v>
+        <v>11.13232612609863</v>
       </c>
       <c r="C13" t="n">
-        <v>7.857000350952148</v>
+        <v>8.81428337097168</v>
       </c>
       <c r="D13" t="n">
-        <v>12.10258483886719</v>
+        <v>13.45036888122559</v>
       </c>
     </row>
     <row r="14">
@@ -1021,13 +951,13 @@
         <v>2017</v>
       </c>
       <c r="B14" t="n">
-        <v>9.929690361022949</v>
+        <v>10.91230392456055</v>
       </c>
       <c r="C14" t="n">
-        <v>7.66655445098877</v>
+        <v>8.791986465454102</v>
       </c>
       <c r="D14" t="n">
-        <v>12.19282627105713</v>
+        <v>13.03262138366699</v>
       </c>
     </row>
     <row r="15">
@@ -1035,13 +965,13 @@
         <v>2018</v>
       </c>
       <c r="B15" t="n">
-        <v>10.43310832977295</v>
+        <v>11.02891540527344</v>
       </c>
       <c r="C15" t="n">
-        <v>8.041788101196289</v>
+        <v>9.575828552246094</v>
       </c>
       <c r="D15" t="n">
-        <v>12.82442855834961</v>
+        <v>12.48200225830078</v>
       </c>
     </row>
     <row r="16">
@@ -1049,13 +979,13 @@
         <v>2019</v>
       </c>
       <c r="B16" t="n">
-        <v>10.45651721954346</v>
+        <v>10.8054370880127</v>
       </c>
       <c r="C16" t="n">
-        <v>8.123847961425781</v>
+        <v>9.561403274536133</v>
       </c>
       <c r="D16" t="n">
-        <v>12.78918647766113</v>
+        <v>12.04947090148926</v>
       </c>
     </row>
     <row r="17">
@@ -1063,13 +993,13 @@
         <v>2020</v>
       </c>
       <c r="B17" t="n">
-        <v>10.37813472747803</v>
+        <v>11.11916637420654</v>
       </c>
       <c r="C17" t="n">
-        <v>8.208792686462402</v>
+        <v>9.212531089782715</v>
       </c>
       <c r="D17" t="n">
-        <v>12.54747676849365</v>
+        <v>13.02580165863037</v>
       </c>
     </row>
     <row r="18">
@@ -1077,13 +1007,13 @@
         <v>2021</v>
       </c>
       <c r="B18" t="n">
-        <v>10.51331233978271</v>
+        <v>10.91183567047119</v>
       </c>
       <c r="C18" t="n">
-        <v>7.979606151580811</v>
+        <v>8.882436752319336</v>
       </c>
       <c r="D18" t="n">
-        <v>13.04701805114746</v>
+        <v>12.94123458862305</v>
       </c>
     </row>
   </sheetData>
@@ -1132,13 +1062,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>8.954848432540894</v>
+        <v>11.22140712738037</v>
       </c>
       <c r="C2" t="n">
-        <v>6.635180895287764</v>
+        <v>7.620257627948675</v>
       </c>
       <c r="D2" t="n">
-        <v>11.27451596979402</v>
+        <v>14.82255662681207</v>
       </c>
     </row>
     <row r="3">
@@ -1146,13 +1076,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>10.71685285568237</v>
+        <v>11.76391878128052</v>
       </c>
       <c r="C3" t="n">
-        <v>9.003463695861916</v>
+        <v>9.501870978246727</v>
       </c>
       <c r="D3" t="n">
-        <v>12.43024201550283</v>
+        <v>14.02596658431431</v>
       </c>
     </row>
     <row r="4">
@@ -1160,13 +1090,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>9.980364227294922</v>
+        <v>8.874241828918457</v>
       </c>
       <c r="C4" t="n">
-        <v>8.33873982167448</v>
+        <v>6.385010278471775</v>
       </c>
       <c r="D4" t="n">
-        <v>11.62198863291536</v>
+        <v>11.36347337936514</v>
       </c>
     </row>
     <row r="5">
@@ -1174,13 +1104,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>7.454284048080444</v>
+        <v>8.11832013130188</v>
       </c>
       <c r="C5" t="n">
-        <v>5.177492187577023</v>
+        <v>5.199792134621081</v>
       </c>
       <c r="D5" t="n">
-        <v>9.731075908583865</v>
+        <v>11.03684812798268</v>
       </c>
     </row>
     <row r="6">
@@ -1188,13 +1118,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>10.4500337600708</v>
+        <v>11.15841045379639</v>
       </c>
       <c r="C6" t="n">
-        <v>8.30994984849635</v>
+        <v>9.837379539210488</v>
       </c>
       <c r="D6" t="n">
-        <v>12.59011767164525</v>
+        <v>12.47944136838229</v>
       </c>
     </row>
   </sheetData>
